--- a/output3.xlsx
+++ b/output3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,18 +436,73 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>simu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CO2 emission</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>percentage</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.143561854005168</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>223124053.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1436314428825335</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>218485287.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>219175851.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>219245414.72</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>216428236.48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7692307692307693</v>
       </c>
     </row>
   </sheetData>
